--- a/result/month/month_return.xlsx
+++ b/result/month/month_return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -469,6 +489,10 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,10 +508,22 @@
         <v>-0.01988137055382877</v>
       </c>
       <c r="E3" t="n">
+        <v>0.009118604216434179</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.04852704089466009</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1173318739072462</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.1064504340218519</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>0.07747026167599413</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05114350622610608</v>
       </c>
     </row>
     <row r="4">
@@ -504,10 +540,22 @@
         <v>-0.06784608237044498</v>
       </c>
       <c r="E4" t="n">
+        <v>-0.09349639454286507</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.06564410444532109</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1407096172582407</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.07822683646456152</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>-0.05608946665104364</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.138911304072268</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +572,22 @@
         <v>0.07849864648665195</v>
       </c>
       <c r="E5" t="n">
+        <v>0.02136482249769678</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1478095044888112</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01851904776723767</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.05728943251029639</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.0432805083584622</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.03601087204944697</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +604,22 @@
         <v>0.08258659100927446</v>
       </c>
       <c r="E6" t="n">
+        <v>0.2491440530393563</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1486831976451248</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.168464522132528</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2438628289724853</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>-0.03371105734231161</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1173053564693856</v>
       </c>
     </row>
     <row r="7">
@@ -564,10 +636,22 @@
         <v>-0.0110362861428861</v>
       </c>
       <c r="E7" t="n">
+        <v>0.1271740921290556</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.008810629682154847</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05284248137437997</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.1009104744552567</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>-0.1000834585569828</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.00633784370074153</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +668,22 @@
         <v>-0.01115944624889842</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.08498421229786057</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03905051487187317</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0289875368732524</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.003853569315990235</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>0.03719437000804904</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.01169068293979336</v>
       </c>
     </row>
     <row r="9">
@@ -604,10 +700,22 @@
         <v>0.06632931073126525</v>
       </c>
       <c r="E9" t="n">
+        <v>0.4139346082217381</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1425333067355417</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2531645675690672</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.310026714956654</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.07236783250347756</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1254770946708597</v>
       </c>
     </row>
     <row r="10">
@@ -624,10 +732,22 @@
         <v>0.03890650887302938</v>
       </c>
       <c r="E10" t="n">
+        <v>0.01197619104671599</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.02729923848763782</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.03575169096384245</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.08900750282121983</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>-0.02677024106460468</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.01290977945899385</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +764,22 @@
         <v>-0.0169783365344176</v>
       </c>
       <c r="E11" t="n">
+        <v>-0.01197619104671599</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.04404381576143956</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.01739174271186927</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.01663506050453201</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>0.1030322258982346</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.06426414492590737</v>
       </c>
     </row>
     <row r="12">
@@ -664,10 +796,22 @@
         <v>-0.01263658400451195</v>
       </c>
       <c r="E12" t="n">
+        <v>-0.07503518594291414</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04583753821546654</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.07508215635156512</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.04676176590803927</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>0.08058048665933981</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.002336356455858279</v>
       </c>
     </row>
     <row r="13">
@@ -684,10 +828,22 @@
         <v>0.04520543676804678</v>
       </c>
       <c r="E13" t="n">
+        <v>-0.1581992683532585</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1758906664636641</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.1374138874717343</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1046954009010159</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>0.05032508388751555</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001257976454571264</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +860,22 @@
         <v>-0.006651909228305719</v>
       </c>
       <c r="E14" t="n">
+        <v>0.204719283988152</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1632665132352678</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1919568687776265</v>
+      </c>
+      <c r="H14" t="n">
         <v>-0.149570367129809</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>0.03466812894587701</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.03033895854957791</v>
       </c>
     </row>
     <row r="15">
@@ -724,10 +892,22 @@
         <v>0.01106205970585838</v>
       </c>
       <c r="E15" t="n">
+        <v>-0.0465200156348935</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.05790599757744141</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.02954167910047456</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.008310297133627742</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>-0.2029778817196153</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.04439188628719393</v>
       </c>
     </row>
     <row r="16">
@@ -744,10 +924,22 @@
         <v>-0.04730611739693691</v>
       </c>
       <c r="E16" t="n">
+        <v>-0.1797275216169076</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4131871542020749</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.008857453834060891</v>
+      </c>
+      <c r="H16" t="n">
         <v>-0.001380262468957838</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>-0.08717637987755467</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.02559185576708245</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +956,22 @@
         <v>0.06906976203329673</v>
       </c>
       <c r="E17" t="n">
+        <v>0.2137733630266254</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2885713566366643</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.05115516330092973</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>-0.1446252341797698</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.003103576612893733</v>
       </c>
     </row>
     <row r="18">
@@ -784,10 +988,22 @@
         <v>0.03282454564804338</v>
       </c>
       <c r="E18" t="n">
+        <v>0.1107851064687386</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.002902759657961607</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01980262729617976</v>
+      </c>
+      <c r="H18" t="n">
         <v>-0.03471643695776994</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>-0.1061235832263292</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0322769649593333</v>
       </c>
     </row>
     <row r="19">
@@ -804,10 +1020,22 @@
         <v>0.13613217432458</v>
       </c>
       <c r="E19" t="n">
+        <v>-0.1319275430425479</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.2597532969267702</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.1764164749062402</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>-0.05760754926182576</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.01398388251946869</v>
       </c>
     </row>
     <row r="20">
@@ -824,10 +1052,22 @@
         <v>0.229667677391153</v>
       </c>
       <c r="E20" t="n">
+        <v>0.4445762382247898</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.09925495809534102</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3860691777605849</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4594124324896205</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>-0.006761350978043978</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02903108697736023</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +1084,22 @@
         <v>-0.01896482805897381</v>
       </c>
       <c r="E21" t="n">
+        <v>-0.576887374444083</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.08201315166083489</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.6602830331614995</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.4859575571879766</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>-0.1395584352686665</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.03946251590163818</v>
       </c>
     </row>
     <row r="22">
@@ -864,10 +1116,22 @@
         <v>-0.4113735447943307</v>
       </c>
       <c r="E22" t="n">
+        <v>-0.2503392941226998</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1889472317660918</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1838068894101461</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.8931683144533014</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>0.0170151050059828</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02877222901981824</v>
       </c>
     </row>
     <row r="23">
@@ -884,10 +1148,22 @@
         <v>-0.01793770068666722</v>
       </c>
       <c r="E23" t="n">
+        <v>-0.7498634100017982</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.3294216786245463</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.4008376125761162</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.005730674708984917</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>-0.1033176140280259</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.0668250810602018</v>
       </c>
     </row>
     <row r="24">
@@ -904,10 +1180,22 @@
         <v>-0.04039787632629599</v>
       </c>
       <c r="E24" t="n">
+        <v>-0.2623642644674908</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.08552217343816215</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0792350929772021</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.08858000476225625</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>-0.04700604237593042</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.02948066094304913</v>
       </c>
     </row>
     <row r="25">
@@ -924,10 +1212,22 @@
         <v>-0.03110298563427749</v>
       </c>
       <c r="E25" t="n">
+        <v>-0.3841423386393434</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2411620568168877</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1159107265529791</v>
+      </c>
+      <c r="H25" t="n">
         <v>-0.009463793030950018</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>-0.06441969278498672</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.05246842842533006</v>
       </c>
     </row>
     <row r="26">
@@ -944,10 +1244,22 @@
         <v>0.08498421229786057</v>
       </c>
       <c r="E26" t="n">
+        <v>0.3927260823307348</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09116938713829326</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1727359181305972</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.07625644360829886</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>0.12326019280792</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.02717064290178328</v>
       </c>
     </row>
     <row r="27">
@@ -964,10 +1276,22 @@
         <v>-0.07651471218428707</v>
       </c>
       <c r="E27" t="n">
+        <v>-0.7918820212456343</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.208725175889938</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.2316784537640473</v>
+      </c>
+      <c r="H27" t="n">
         <v>-0.01181697650478464</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>-0.008438868645864517</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.07099273252675786</v>
       </c>
     </row>
     <row r="28">
@@ -984,10 +1308,22 @@
         <v>-0.04434223954350758</v>
       </c>
       <c r="E28" t="n">
+        <v>-0.1416505170630269</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1112857836772028</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1335313926245223</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.03360433068969204</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>0.02510592113107624</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.08963625193702285</v>
       </c>
     </row>
     <row r="29">
@@ -1004,10 +1340,22 @@
         <v>-0.04245010338545008</v>
       </c>
       <c r="E29" t="n">
+        <v>-0.1702211498598674</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.05521073197235493</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03213127818279293</v>
+      </c>
+      <c r="H29" t="n">
         <v>-0.05310982531394837</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>-0.1210942969600395</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.002452324372251624</v>
       </c>
     </row>
     <row r="30">
@@ -1024,10 +1372,22 @@
         <v>0.07467098239661318</v>
       </c>
       <c r="E30" t="n">
+        <v>0.04040953833787686</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03091803940331017</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02343857297201746</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.0224728558520586</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
         <v>0.05269157007563896</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.006041346988967078</v>
       </c>
     </row>
     <row r="31">
@@ -1044,10 +1404,22 @@
         <v>-0.0436206224758906</v>
       </c>
       <c r="E31" t="n">
+        <v>-0.470399747294092</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.06657024802229516</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.1079378366721264</v>
+      </c>
+      <c r="H31" t="n">
         <v>-0.03620304866396085</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>-0.06394872460027345</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.005808479582366743</v>
       </c>
     </row>
     <row r="32">
@@ -1064,10 +1436,22 @@
         <v>0.03750439545845419</v>
       </c>
       <c r="E32" t="n">
+        <v>0.02966650034846952</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02594339449202421</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1117914059881167</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.06827576855195483</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>-0.01712696479280051</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.08599203348250306</v>
       </c>
     </row>
     <row r="33">
@@ -1084,10 +1468,22 @@
         <v>-0.01110437073423443</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.0863123206871319</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.009992945397518493</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
         <v>-0.06543463590021981</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.06021124020491087</v>
       </c>
     </row>
     <row r="34">
@@ -1104,10 +1500,22 @@
         <v>0.01600034134644135</v>
       </c>
       <c r="E34" t="n">
+        <v>0.04069891002259229</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.006079046076381989</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.04709160753385033</v>
+      </c>
+      <c r="H34" t="n">
         <v>-0.1482495650985438</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
         <v>-0.09224112368690696</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.004557253844529541</v>
       </c>
     </row>
     <row r="35">
@@ -1124,10 +1532,22 @@
         <v>-0.1205340690282735</v>
       </c>
       <c r="E35" t="n">
+        <v>-0.287189825333793</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.2216295464829945</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.1508228897345836</v>
+      </c>
+      <c r="H35" t="n">
         <v>-0.1356517845133309</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
         <v>-0.1422369127014096</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.1242240036195756</v>
       </c>
     </row>
     <row r="36">
@@ -1144,10 +1564,22 @@
         <v>0.1107180392906169</v>
       </c>
       <c r="E36" t="n">
+        <v>0.3105485516114213</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2106605151124206</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2034153398537546</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.1257179279890401</v>
       </c>
-      <c r="F36" t="n">
+      <c r="I36" t="n">
         <v>0.1377324005803047</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1511530968690753</v>
       </c>
     </row>
     <row r="37">
@@ -1164,10 +1596,22 @@
         <v>-0.04154152993702143</v>
       </c>
       <c r="E37" t="n">
+        <v>-0.02335872627762825</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.01730574709759258</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03358524612188152</v>
+      </c>
+      <c r="H37" t="n">
         <v>-0.07244546138010843</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
         <v>0.08851513667149646</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01781129242779578</v>
       </c>
     </row>
     <row r="38">
@@ -1184,10 +1628,22 @@
         <v>0.007682496172016329</v>
       </c>
       <c r="E38" t="n">
+        <v>0.0629678643726741</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.121930698176465</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.08777561088238572</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.08894748601649605</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>0.06981897644925672</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.04274743043692197</v>
       </c>
     </row>
     <row r="39">
@@ -1204,10 +1660,22 @@
         <v>-0.01025650016718904</v>
       </c>
       <c r="E39" t="n">
+        <v>0.01103459472370916</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.005534048434641559</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.008368249670516636</v>
+      </c>
+      <c r="H39" t="n">
         <v>-0.01816730395544885</v>
       </c>
-      <c r="F39" t="n">
+      <c r="I39" t="n">
         <v>0.1076699855064889</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.0432286207352135</v>
       </c>
     </row>
     <row r="40">
@@ -1224,10 +1692,22 @@
         <v>-0.01820596449657241</v>
       </c>
       <c r="E40" t="n">
+        <v>0.03900965363371345</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.005534048434641559</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04242071588395202</v>
+      </c>
+      <c r="H40" t="n">
         <v>-0.005012541823544492</v>
       </c>
-      <c r="F40" t="n">
+      <c r="I40" t="n">
         <v>-0.3122016896260997</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.011454816806582</v>
       </c>
     </row>
     <row r="41">
@@ -1244,10 +1724,22 @@
         <v>-0.04564550748996021</v>
       </c>
       <c r="E41" t="n">
+        <v>0.0286105340412659</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.002205072558314036</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02211780525361906</v>
+      </c>
+      <c r="H41" t="n">
         <v>-0.09849783454612027</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
         <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.04769433748369956</v>
       </c>
     </row>
     <row r="42">
@@ -1264,10 +1756,22 @@
         <v>0.02173998663640608</v>
       </c>
       <c r="E42" t="n">
+        <v>0.02030526616074546</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01746769304039075</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.06209412979579465</v>
+      </c>
+      <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="n">
+      <c r="I42" t="n">
         <v>0.09895707862261949</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.01973512988813475</v>
       </c>
     </row>
     <row r="43">
@@ -1284,10 +1788,22 @@
         <v>-0.02586937997841732</v>
       </c>
       <c r="E43" t="n">
+        <v>0.09233636999521933</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.03404584140971734</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.06536417138400719</v>
+      </c>
+      <c r="H43" t="n">
         <v>-0.1322119571514051</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="n">
         <v>-0.144914379707747</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.01919295399465959</v>
       </c>
     </row>
     <row r="44">
@@ -1304,10 +1820,22 @@
         <v>0.01912626609352719</v>
       </c>
       <c r="E44" t="n">
+        <v>-0.06752120087549551</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02886798400085189</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.09215148734765677</v>
+      </c>
+      <c r="H44" t="n">
         <v>-0.04752514186284529</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="n">
         <v>0.002472189145389159</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.008627430263508984</v>
       </c>
     </row>
     <row r="45">
@@ -1324,10 +1852,22 @@
         <v>-0.04851956479015973</v>
       </c>
       <c r="E45" t="n">
+        <v>-0.003683245416296277</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.0102145934097182</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.02288429383358803</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.004415018209116717</v>
       </c>
-      <c r="F45" t="n">
+      <c r="I45" t="n">
         <v>0.08288765980576773</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.02188946956819748</v>
       </c>
     </row>
     <row r="46">
@@ -1344,10 +1884,22 @@
         <v>0.04309214305479436</v>
       </c>
       <c r="E46" t="n">
+        <v>0.07577588282437242</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.006141268022082702</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.001544401851373944</v>
+      </c>
+      <c r="H46" t="n">
         <v>-0.05198910793760003</v>
       </c>
-      <c r="F46" t="n">
+      <c r="I46" t="n">
         <v>-0.2174778137785327</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.04372588759108709</v>
       </c>
     </row>
     <row r="47">
@@ -1364,10 +1916,22 @@
         <v>0.002717392976499866</v>
       </c>
       <c r="E47" t="n">
+        <v>-0.01377748544030366</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.006103782938017499</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.08546697513825574</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.02971647232847685</v>
       </c>
-      <c r="F47" t="n">
+      <c r="I47" t="n">
         <v>0.005633817718256218</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.0302391013914427</v>
       </c>
     </row>
     <row r="48">
@@ -1384,10 +1948,22 @@
         <v>0.02941388520629351</v>
       </c>
       <c r="E48" t="n">
+        <v>0.06489972757097284</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0289875368732524</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.001682086182984932</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.006734032181344052</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>0.04396312342111619</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.02395430608186366</v>
       </c>
     </row>
     <row r="49">
@@ -1404,10 +1980,22 @@
         <v>-0.01326279387841067</v>
       </c>
       <c r="E49" t="n">
+        <v>-0.03192345932933804</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.03865215443427905</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03792705191206069</v>
+      </c>
+      <c r="H49" t="n">
         <v>-0.0364505045098209</v>
       </c>
-      <c r="F49" t="n">
+      <c r="I49" t="n">
         <v>-0.008097210232619556</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.04497587210211584</v>
       </c>
     </row>
     <row r="50">
@@ -1424,10 +2012,22 @@
         <v>-0.05347401348185832</v>
       </c>
       <c r="E50" t="n">
+        <v>-0.01578386770126183</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.04176941287629532</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.008058061329762722</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.01382510499184209</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>-0.01915243221475604</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.02084037160025964</v>
       </c>
     </row>
     <row r="51">
@@ -1444,10 +2044,22 @@
         <v>-0.01847955927483724</v>
       </c>
       <c r="E51" t="n">
+        <v>0.02690745291992425</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.0276665327181389</v>
+      </c>
+      <c r="H51" t="n">
         <v>-0.006888660995185258</v>
       </c>
-      <c r="F51" t="n">
+      <c r="I51" t="n">
         <v>0.07961762796469163</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01637726097782277</v>
       </c>
     </row>
     <row r="52">
@@ -1464,10 +2076,22 @@
         <v>0.04625912338191318</v>
       </c>
       <c r="E52" t="n">
+        <v>-0.0568981666036068</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.1830490941123317</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.001651528038472794</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.01826534797729318</v>
       </c>
-      <c r="F52" t="n">
+      <c r="I52" t="n">
         <v>-0.05236798551731603</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.008725225692437277</v>
       </c>
     </row>
     <row r="53">
@@ -1484,10 +2108,22 @@
         <v>0.08655465170194576</v>
       </c>
       <c r="E53" t="n">
+        <v>0.02200436205103262</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.009777372838295051</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1285603799025021</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.1051342457168225</v>
       </c>
-      <c r="F53" t="n">
+      <c r="I53" t="n">
         <v>-0.07534943724178689</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1158717614021292</v>
       </c>
     </row>
     <row r="54">
@@ -1504,10 +2140,22 @@
         <v>0.01000008333458391</v>
       </c>
       <c r="E54" t="n">
+        <v>0.01252150679804087</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01714940207295435</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.0265111255483319</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.002034588697787498</v>
       </c>
-      <c r="F54" t="n">
+      <c r="I54" t="n">
         <v>-0.05358424613410628</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.005219700953253081</v>
       </c>
     </row>
     <row r="55">
@@ -1524,10 +2172,22 @@
         <v>-0.003738322110607317</v>
       </c>
       <c r="E55" t="n">
+        <v>0.03774032798284699</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.04975119203733236</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.1003977263156974</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.03003228709887518</v>
       </c>
-      <c r="F55" t="n">
+      <c r="I55" t="n">
         <v>0.03898544671295356</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.0005813362307698355</v>
       </c>
     </row>
     <row r="56">
@@ -1544,10 +2204,22 @@
         <v>-0.007518832414027621</v>
       </c>
       <c r="E56" t="n">
+        <v>-0.01980262729617932</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.03812929683134669</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.07182573457125541</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.001970443987298509</v>
       </c>
-      <c r="F56" t="n">
+      <c r="I56" t="n">
         <v>-0.01183445764700286</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.02015193509854285</v>
       </c>
     </row>
     <row r="57">
@@ -1564,10 +2236,22 @@
         <v>-0.0177669648146459</v>
       </c>
       <c r="E57" t="n">
+        <v>0.05301403528561677</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.06407885668452229</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.003552401604367983</v>
+      </c>
+      <c r="H57" t="n">
         <v>-0.007905179507113225</v>
       </c>
-      <c r="F57" t="n">
+      <c r="I57" t="n">
         <v>0.02932761509452009</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.003504998782116076</v>
       </c>
     </row>
     <row r="58">
@@ -1584,10 +2268,22 @@
         <v>0.02902411933928084</v>
       </c>
       <c r="E58" t="n">
+        <v>0.08190528261375363</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.06669137449867213</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0383991329345359</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.0503007384747991</v>
       </c>
-      <c r="F58" t="n">
+      <c r="I58" t="n">
         <v>0.03966525639243113</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.020163374143916</v>
       </c>
     </row>
     <row r="59">
@@ -1604,10 +2300,22 @@
         <v>-0.06686294522912695</v>
       </c>
       <c r="E59" t="n">
+        <v>0.02398196468648539</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.00461894585629441</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.005123836999869624</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.03704127168034921</v>
       </c>
-      <c r="F59" t="n">
+      <c r="I59" t="n">
         <v>-0.002781642961876774</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02424974126627433</v>
       </c>
     </row>
     <row r="60">
@@ -1624,10 +2332,22 @@
         <v>0.02235464555580435</v>
       </c>
       <c r="E60" t="n">
+        <v>-0.01432005377474832</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.06280090123903026</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02523262548072447</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.01801850550267803</v>
       </c>
-      <c r="F60" t="n">
+      <c r="I60" t="n">
         <v>0.03018061714999121</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.009571749308715738</v>
       </c>
     </row>
     <row r="61">
@@ -1644,10 +2364,22 @@
         <v>-0.00130123635797208</v>
       </c>
       <c r="E61" t="n">
+        <v>0.109199291964992</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.05085841723349116</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.001662510773613235</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.08716017544240051</v>
       </c>
-      <c r="F61" t="n">
+      <c r="I61" t="n">
         <v>-0.04420609250449559</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.02630897486115913</v>
       </c>
     </row>
     <row r="62">
@@ -1664,10 +2396,22 @@
         <v>-0.003913899321136061</v>
       </c>
       <c r="E62" t="n">
+        <v>-0.008658062743114758</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.03789927259098569</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.0459655382156412</v>
+      </c>
+      <c r="H62" t="n">
         <v>-0.05379448159860001</v>
       </c>
-      <c r="F62" t="n">
+      <c r="I62" t="n">
         <v>-0.04921398278141265</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.04239724669532485</v>
       </c>
     </row>
     <row r="63">
@@ -1684,10 +2428,22 @@
         <v>0.00261096754072021</v>
       </c>
       <c r="E63" t="n">
+        <v>0.04255961441879608</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.00862074304390692</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02069039325744626</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.04392598045784624</v>
       </c>
-      <c r="F63" t="n">
+      <c r="I63" t="n">
         <v>-0.03012275945510812</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.007774300709790793</v>
       </c>
     </row>
     <row r="64">
@@ -1704,10 +2460,22 @@
         <v>-0.04807334161747789</v>
       </c>
       <c r="E64" t="n">
+        <v>0.02874941328598579</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.06291382541056922</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.03472571137382996</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.02449102000829573</v>
       </c>
-      <c r="F64" t="n">
+      <c r="I64" t="n">
         <v>-0.1304779551376325</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.02185695113573694</v>
       </c>
     </row>
     <row r="65">
@@ -1724,10 +2492,22 @@
         <v>-0.004112411553092166</v>
       </c>
       <c r="E65" t="n">
+        <v>0.02794593039055959</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.08479653666007714</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.010657294473988</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.01441177866130339</v>
       </c>
-      <c r="F65" t="n">
+      <c r="I65" t="n">
         <v>-0.03546470957228243</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03871151338763035</v>
       </c>
     </row>
     <row r="66">
@@ -1744,10 +2524,22 @@
         <v>0.005479465764625324</v>
       </c>
       <c r="E66" t="n">
+        <v>0.2767962648065296</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1246424452072765</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.08223809823697215</v>
+      </c>
+      <c r="H66" t="n">
         <v>-0.09150186038087416</v>
       </c>
-      <c r="F66" t="n">
+      <c r="I66" t="n">
         <v>0.03197430463251383</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01925120922986245</v>
       </c>
     </row>
     <row r="67">
@@ -1764,10 +2556,22 @@
         <v>-0.01514137667636239</v>
       </c>
       <c r="E67" t="n">
+        <v>-0.2194191522232272</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.3215836241274621</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.1112256351102245</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.01039870722089864</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>-0.0612804312180133</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.01508134714348586</v>
       </c>
     </row>
     <row r="68">
@@ -1784,10 +2588,22 @@
         <v>0.04872411615249961</v>
       </c>
       <c r="E68" t="n">
+        <v>-0.06925844047005514</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.005402498283348489</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.001836547807301692</v>
+      </c>
+      <c r="H68" t="n">
         <v>-0.1584703409717747</v>
       </c>
-      <c r="F68" t="n">
+      <c r="I68" t="n">
         <v>0.02568948611531097</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.003098588617195475</v>
       </c>
     </row>
     <row r="69">
@@ -1804,10 +2620,22 @@
         <v>0.0170272614102811</v>
       </c>
       <c r="E69" t="n">
+        <v>0.03137512256775343</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.002169198247545356</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03249383347644619</v>
+      </c>
+      <c r="H69" t="n">
         <v>-0.01424235671554319</v>
       </c>
-      <c r="F69" t="n">
+      <c r="I69" t="n">
         <v>0.0320883145515003</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.03468283045430987</v>
       </c>
     </row>
     <row r="70">
@@ -1824,10 +2652,22 @@
         <v>0.0774419259734791</v>
       </c>
       <c r="E70" t="n">
+        <v>-0.7446437063271198</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01508649303338006</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01410958151631991</v>
+      </c>
+      <c r="H70" t="n">
         <v>-0.03122001736121449</v>
       </c>
-      <c r="F70" t="n">
+      <c r="I70" t="n">
         <v>-0.003514942107444519</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.01694635767669617</v>
       </c>
     </row>
     <row r="71">
@@ -1844,10 +2684,22 @@
         <v>0.02960547777657085</v>
       </c>
       <c r="E71" t="n">
+        <v>0.1280284744272924</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1207495166214798</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.08233026838312707</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.04141378555075725</v>
       </c>
-      <c r="F71" t="n">
+      <c r="I71" t="n">
         <v>0.02777956410707594</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.006145261653571765</v>
       </c>
     </row>
     <row r="72">
@@ -1864,10 +2716,22 @@
         <v>0.02875413740901145</v>
       </c>
       <c r="E72" t="n">
+        <v>-0.007178781727005923</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.04359043607486157</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.09677538153165255</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.04171409141247517</v>
       </c>
-      <c r="F72" t="n">
+      <c r="I72" t="n">
         <v>0.06303910991095218</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.006241716533329722</v>
       </c>
     </row>
     <row r="73">
@@ -1884,10 +2748,22 @@
         <v>0.004524894598289642</v>
       </c>
       <c r="E73" t="n">
+        <v>-0.2163224873517053</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.07182573457125541</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.198558075841595</v>
+      </c>
+      <c r="H73" t="n">
         <v>-0.03564733873023762</v>
       </c>
-      <c r="F73" t="n">
+      <c r="I73" t="n">
         <v>-0.02276521077301252</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.03151770222038941</v>
       </c>
     </row>
     <row r="74">
@@ -1904,10 +2780,22 @@
         <v>0.006749181974928575</v>
       </c>
       <c r="E74" t="n">
+        <v>-0.1482053591044987</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.010695289116748</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.05884050002293328</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.00201409937170105</v>
       </c>
-      <c r="F74" t="n">
+      <c r="I74" t="n">
         <v>-0.05754548564660045</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.02079592842007472</v>
       </c>
     </row>
     <row r="75">
@@ -1924,10 +2812,22 @@
         <v>-0.01354422510775732</v>
       </c>
       <c r="E75" t="n">
+        <v>0.1764259267467501</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.02757332690409964</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.2094133585023075</v>
+      </c>
+      <c r="H75" t="n">
         <v>-0.01011130960432061</v>
       </c>
-      <c r="F75" t="n">
+      <c r="I75" t="n">
         <v>0.01727158650866079</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.001383135807261127</v>
       </c>
     </row>
     <row r="76">
@@ -1944,10 +2844,22 @@
         <v>-0.06090875308699228</v>
       </c>
       <c r="E76" t="n">
+        <v>0.1981378462372396</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.001046572570670978</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.2964247354919372</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.008097210232619556</v>
       </c>
-      <c r="F76" t="n">
+      <c r="I76" t="n">
         <v>-0.05998270460171051</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.005332747329093834</v>
       </c>
     </row>
     <row r="77">
@@ -1964,10 +2876,22 @@
         <v>0.01795380361659582</v>
       </c>
       <c r="E77" t="n">
+        <v>0.01275708300077105</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.0211648111920435</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.008298802814695083</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.03369991844584197</v>
       </c>
-      <c r="F77" t="n">
+      <c r="I77" t="n">
         <v>0.02158357166717462</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.01335775405308048</v>
       </c>
     </row>
     <row r="78">
@@ -1984,10 +2908,22 @@
         <v>-0.009535233150999911</v>
       </c>
       <c r="E78" t="n">
+        <v>0.02777956410707572</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.01508649303338006</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.1030483758994469</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.03636764417087512</v>
       </c>
-      <c r="F78" t="n">
+      <c r="I78" t="n">
         <v>-0.03623584845404482</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.0107482513368371</v>
       </c>
     </row>
     <row r="79">
@@ -2004,10 +2940,22 @@
         <v>0.02717237463710642</v>
       </c>
       <c r="E79" t="n">
+        <v>0.001368925607341698</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.02041983900874289</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.04735947003885821</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.007490671729157405</v>
       </c>
-      <c r="F79" t="n">
+      <c r="I79" t="n">
         <v>0.01100928550836899</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.009354611385317568</v>
       </c>
     </row>
     <row r="80">
@@ -2024,10 +2972,22 @@
         <v>-0.01408473988173897</v>
       </c>
       <c r="E80" t="n">
+        <v>0.07127025803262965</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.03038473662671626</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.03816400294575795</v>
+      </c>
+      <c r="H80" t="n">
         <v>-0.09792553717030827</v>
       </c>
-      <c r="F80" t="n">
+      <c r="I80" t="n">
         <v>-0.01841672678623096</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.03601660377889182</v>
       </c>
     </row>
     <row r="81">
@@ -2044,10 +3004,22 @@
         <v>-0.04719569133627433</v>
       </c>
       <c r="E81" t="n">
+        <v>-0.00767267191165999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.06589209380870331</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.009111680351256091</v>
+      </c>
+      <c r="H81" t="n">
         <v>-0.002059732963010763</v>
       </c>
-      <c r="F81" t="n">
+      <c r="I81" t="n">
         <v>0.01109068669415825</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.01522976832252887</v>
       </c>
     </row>
     <row r="82">
@@ -2064,10 +3036,22 @@
         <v>0.03170997389689401</v>
       </c>
       <c r="E82" t="n">
+        <v>0.09074850162093062</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01913934021069741</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.08682239465891506</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.03245721014738168</v>
       </c>
-      <c r="F82" t="n">
+      <c r="I82" t="n">
         <v>0.07777770104268411</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.01864719455015162</v>
       </c>
     </row>
     <row r="83">
@@ -2084,10 +3068,22 @@
         <v>-0.003607941376199353</v>
       </c>
       <c r="E83" t="n">
+        <v>0.004678371106101142</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.08622117544712893</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.006217636610870603</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.05627090546130287</v>
       </c>
-      <c r="F83" t="n">
+      <c r="I83" t="n">
         <v>0.02684725003618826</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.04286538217110447</v>
       </c>
     </row>
     <row r="84">
@@ -2104,10 +3100,22 @@
         <v>-0.07633473128499935</v>
       </c>
       <c r="E84" t="n">
+        <v>0.02648398887447234</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.006217636610870603</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.02607224030977484</v>
       </c>
-      <c r="F84" t="n">
+      <c r="I84" t="n">
         <v>-0.006644542718668767</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.03890327309406771</v>
       </c>
     </row>
     <row r="85">
@@ -2124,10 +3132,22 @@
         <v>-0.03036536930188349</v>
       </c>
       <c r="E85" t="n">
+        <v>-0.06332713395127421</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.01312929144179265</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.1719802029992219</v>
+      </c>
+      <c r="H85" t="n">
         <v>-0.007380107297622285</v>
       </c>
-      <c r="F85" t="n">
+      <c r="I85" t="n">
         <v>-0.0202027073175195</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.03212937109732117</v>
       </c>
     </row>
     <row r="86">
@@ -2144,10 +3164,22 @@
         <v>0.03684627338596647</v>
       </c>
       <c r="E86" t="n">
+        <v>0.05074835174441406</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.05568890586058872</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.03398385281559824</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.06106025676124638</v>
       </c>
-      <c r="F86" t="n">
+      <c r="I86" t="n">
         <v>0.0202027073175195</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02340055099256411</v>
       </c>
     </row>
     <row r="87">
@@ -2164,10 +3196,22 @@
         <v>-0.01693851572804128</v>
       </c>
       <c r="E87" t="n">
+        <v>-0.07030887759890758</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.1053605156578263</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.03893435797545486</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.02409755157906046</v>
       </c>
-      <c r="F87" t="n">
+      <c r="I87" t="n">
         <v>-0.01005033585350157</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.002095005949744433</v>
       </c>
     </row>
     <row r="88">
@@ -2184,10 +3228,22 @@
         <v>0.01951916232153295</v>
       </c>
       <c r="E88" t="n">
+        <v>0.1996600839562275</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.07576004588153573</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1213608570042677</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.1275612256380185</v>
       </c>
-      <c r="F88" t="n">
+      <c r="I88" t="n">
         <v>0.05884050002293373</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02769968005021362</v>
       </c>
     </row>
     <row r="89">
@@ -2204,10 +3260,22 @@
         <v>-0.03407931365286254</v>
       </c>
       <c r="E89" t="n">
+        <v>-0.03918026907732175</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.03493805136128048</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.04036422385536031</v>
+      </c>
+      <c r="H89" t="n">
         <v>-0.2053389266807031</v>
       </c>
-      <c r="F89" t="n">
+      <c r="I89" t="n">
         <v>-0.0224728558520586</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.04459152113521903</v>
       </c>
     </row>
     <row r="90">
@@ -2224,10 +3292,22 @@
         <v>-0.0380480676375301</v>
       </c>
       <c r="E90" t="n">
+        <v>0.09425810185352113</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.03922071315328113</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.002290951746555692</v>
+      </c>
+      <c r="H90" t="n">
         <v>-0.007380107297622285</v>
       </c>
-      <c r="F90" t="n">
+      <c r="I90" t="n">
         <v>-0.02298951822469864</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.0007727975655082986</v>
       </c>
     </row>
     <row r="91">
@@ -2244,10 +3324,22 @@
         <v>-0.0540672212702753</v>
       </c>
       <c r="E91" t="n">
+        <v>0.03756310157564835</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1830335539760446</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2627170603787179</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.1053605156578263</v>
       </c>
-      <c r="F91" t="n">
+      <c r="I91" t="n">
         <v>-0.03035646248059409</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0582602299101147</v>
       </c>
     </row>
     <row r="92">
@@ -2264,10 +3356,22 @@
         <v>0.04152350279174533</v>
       </c>
       <c r="E92" t="n">
+        <v>-0.00461894585629441</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.06620063715598157</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0380668799238344</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.05826890812397556</v>
       </c>
-      <c r="F92" t="n">
+      <c r="I92" t="n">
         <v>0.05981849521090998</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.07315544983164912</v>
       </c>
     </row>
     <row r="93">
@@ -2284,10 +3388,22 @@
         <v>0.07690909443343363</v>
       </c>
       <c r="E93" t="n">
+        <v>0.1421744887805425</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1316284424784366</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03993875228462462</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.1675377606097177</v>
       </c>
-      <c r="F93" t="n">
+      <c r="I93" t="n">
         <v>0.07157019250125174</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.03974957815959002</v>
       </c>
     </row>
     <row r="94">
@@ -2304,10 +3420,22 @@
         <v>0.05434059470008101</v>
       </c>
       <c r="E94" t="n">
+        <v>0.2539882266653084</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.08311490671050681</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.05860742695347154</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.1058922891348617</v>
       </c>
-      <c r="F94" t="n">
+      <c r="I94" t="n">
         <v>0.09721935807412674</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01219002529903968</v>
       </c>
     </row>
     <row r="95">
@@ -2324,10 +3452,22 @@
         <v>-0.04272006367706238</v>
       </c>
       <c r="E95" t="n">
+        <v>0.1146629083201396</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.01545625823669194</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.01238405919972152</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.05582844955294197</v>
       </c>
-      <c r="F95" t="n">
+      <c r="I95" t="n">
         <v>0.02688333939344068</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.02407661404782324</v>
       </c>
     </row>
     <row r="96">
@@ -2344,10 +3484,22 @@
         <v>-0.00257069550310085</v>
       </c>
       <c r="E96" t="n">
+        <v>-0.05715841383994835</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.04134134015644131</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0276515313305099</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.04425500900404078</v>
       </c>
-      <c r="F96" t="n">
+      <c r="I96" t="n">
         <v>0.06669137449867168</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.003712936117693744</v>
       </c>
     </row>
     <row r="97">
@@ -2364,10 +3516,22 @@
         <v>0.01912104144677818</v>
       </c>
       <c r="E97" t="n">
+        <v>-0.005899722127188589</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.03195159980660245</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02099027589183589</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.05167201054432091</v>
       </c>
-      <c r="F97" t="n">
+      <c r="I97" t="n">
         <v>0.02451103101435015</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.0274132065717918</v>
       </c>
     </row>
     <row r="98">
@@ -2384,10 +3548,22 @@
         <v>-0.02687301825109634</v>
       </c>
       <c r="E98" t="n">
+        <v>-0.002962965130656858</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.09217045979965732</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0176475168135779</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.02936919945880501</v>
       </c>
-      <c r="F98" t="n">
+      <c r="I98" t="n">
         <v>0.009638628837768781</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.005854588725634713</v>
       </c>
     </row>
     <row r="99">
@@ -2404,10 +3580,22 @@
         <v>-0.02495204961348962</v>
       </c>
       <c r="E99" t="n">
+        <v>-0.221660971353987</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.1053605156578263</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.07097317334835029</v>
+      </c>
+      <c r="H99" t="n">
         <v>-0.08320805808821641</v>
       </c>
-      <c r="F99" t="n">
+      <c r="I99" t="n">
         <v>0.02135312447056892</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.01298897220033268</v>
       </c>
     </row>
     <row r="100">
@@ -2424,10 +3612,22 @@
         <v>0.01058210933053694</v>
       </c>
       <c r="E100" t="n">
+        <v>0.02919915469226231</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.09224973365121869</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.06218834379261784</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.06711113104604172</v>
       </c>
-      <c r="F100" t="n">
+      <c r="I100" t="n">
         <v>-0.03584613177313578</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.02338957550549559</v>
       </c>
     </row>
     <row r="101">
@@ -2444,10 +3644,22 @@
         <v>0.0462807525640061</v>
       </c>
       <c r="E101" t="n">
+        <v>-0.04789128770441486</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.1541506798272585</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.02531780798428995</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.01409892437950155</v>
       </c>
-      <c r="F101" t="n">
+      <c r="I101" t="n">
         <v>0.02166149678117923</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.0008739427410375811</v>
       </c>
     </row>
     <row r="102">
@@ -2464,10 +3676,22 @@
         <v>0.01866886827103009</v>
       </c>
       <c r="E102" t="n">
+        <v>0.01498155361561704</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.01980262729617932</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.09352605801082348</v>
+      </c>
+      <c r="H102" t="n">
         <v>-0.1009259185899603</v>
       </c>
-      <c r="F102" t="n">
+      <c r="I102" t="n">
         <v>0.06899287148695121</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.05101852462679091</v>
       </c>
     </row>
     <row r="103">
@@ -2484,10 +3708,22 @@
         <v>-0.01615945666560403</v>
       </c>
       <c r="E103" t="n">
+        <v>-0.0732504617395926</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.01980262729617932</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.0492710490067827</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.08072321127244075</v>
       </c>
-      <c r="F103" t="n">
+      <c r="I103" t="n">
         <v>0.006644542718668767</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.0128435243940519</v>
       </c>
     </row>
     <row r="104">
@@ -2504,10 +3740,22 @@
         <v>0.01492565021667547</v>
       </c>
       <c r="E104" t="n">
+        <v>-0.04082199452025526</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.004889985294191934</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.02141409450381637</v>
+      </c>
+      <c r="H104" t="n">
         <v>-0.09296599078811862</v>
       </c>
-      <c r="F104" t="n">
+      <c r="I104" t="n">
         <v>-0.08280590368423235</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.008254932781325053</v>
       </c>
     </row>
     <row r="105">
@@ -2524,10 +3772,22 @@
         <v>-0.009925639799969854</v>
       </c>
       <c r="E105" t="n">
+        <v>0.05669534367654538</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.009804000096620857</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.005633817718256218</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.1523894112589197</v>
       </c>
-      <c r="F105" t="n">
+      <c r="I105" t="n">
         <v>0.1674229522438884</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.03434853273699012</v>
       </c>
     </row>
     <row r="106">
@@ -2544,10 +3804,22 @@
         <v>-0.09955859304171844</v>
       </c>
       <c r="E106" t="n">
+        <v>-0.02794593039055959</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.00493828164058252</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.001405481608735215</v>
+      </c>
+      <c r="H106" t="n">
         <v>-0.001924928409584581</v>
       </c>
-      <c r="F106" t="n">
+      <c r="I106" t="n">
         <v>-0.05204087812504321</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.03184512980051935</v>
       </c>
     </row>
     <row r="107">
@@ -2564,10 +3836,22 @@
         <v>0.1326701403104988</v>
       </c>
       <c r="E107" t="n">
+        <v>0.03578910785158529</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.004962789342128904</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.09133861606750759</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.1615550740014684</v>
       </c>
-      <c r="F107" t="n">
+      <c r="I107" t="n">
         <v>0.08790129428605775</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.006557578972822498</v>
       </c>
     </row>
     <row r="108">
@@ -2584,10 +3868,22 @@
         <v>0.05970175233695718</v>
       </c>
       <c r="E108" t="n">
+        <v>0.0155041865359653</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.03423317164224216</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.001282873812888941</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.00978800636616306</v>
       </c>
-      <c r="F108" t="n">
+      <c r="I108" t="n">
         <v>0.1057518285174468</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.02398212925476706</v>
       </c>
     </row>
     <row r="109">
@@ -2604,10 +3900,22 @@
         <v>-0.02999071368368211</v>
       </c>
       <c r="E109" t="n">
+        <v>0.01147240116223669</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.02375408600810713</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.009014871096215238</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.04134134015644086</v>
       </c>
-      <c r="F109" t="n">
+      <c r="I109" t="n">
         <v>-0.1175629894457915</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.02070106053181497</v>
       </c>
     </row>
     <row r="110">
@@ -2624,10 +3932,22 @@
         <v>0.08310053899763048</v>
       </c>
       <c r="E110" t="n">
+        <v>0.05905774964360111</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.02777956410707549</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.04675519907906223</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.05012438718256895</v>
       </c>
-      <c r="F110" t="n">
+      <c r="I110" t="n">
         <v>0.05208506006628477</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.01744677053939014</v>
       </c>
     </row>
     <row r="111">
@@ -2644,10 +3964,22 @@
         <v>-0.07842763329823832</v>
       </c>
       <c r="E111" t="n">
+        <v>-0.0705301508058378</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.00917437627604123</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.03135052988407594</v>
+      </c>
+      <c r="H111" t="n">
         <v>-0.3386375421671217</v>
       </c>
-      <c r="F111" t="n">
+      <c r="I111" t="n">
         <v>-0.1541506798272585</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.02405520982636311</v>
       </c>
     </row>
     <row r="112">
@@ -2664,10 +3996,22 @@
         <v>-0.03922071315328113</v>
       </c>
       <c r="E112" t="n">
+        <v>0.00383877630716567</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.01860518783103426</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.03500033214003651</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.06614811674975707</v>
       </c>
-      <c r="F112" t="n">
+      <c r="I112" t="n">
         <v>-0.01324522675002093</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.005129071231083415</v>
       </c>
     </row>
     <row r="113">
@@ -2684,10 +4028,22 @@
         <v>-0.06769501277135159</v>
       </c>
       <c r="E113" t="n">
+        <v>0.03759841355700777</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.04138521616285429</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.08227281503469808</v>
+      </c>
+      <c r="H113" t="n">
         <v>-0.08524427986961003</v>
       </c>
-      <c r="F113" t="n">
+      <c r="I113" t="n">
         <v>-0.06424226872835348</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.03323106100610218</v>
       </c>
     </row>
     <row r="114">
@@ -2704,10 +4060,22 @@
         <v>-0.04239045261512731</v>
       </c>
       <c r="E114" t="n">
+        <v>-0.03377431711860446</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.05556985115481083</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.1982435098045401</v>
+      </c>
+      <c r="H114" t="n">
         <v>-0.1748074853891657</v>
       </c>
-      <c r="F114" t="n">
+      <c r="I114" t="n">
         <v>-0.03129015799320989</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.01876842596684014</v>
       </c>
     </row>
     <row r="115">
@@ -2724,10 +4092,22 @@
         <v>0.001352265250013307</v>
       </c>
       <c r="E115" t="n">
+        <v>-0.02708095860267079</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.05556985115481083</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.05324451451881229</v>
+      </c>
+      <c r="H115" t="n">
         <v>-0.1561713928159394</v>
       </c>
-      <c r="F115" t="n">
+      <c r="I115" t="n">
         <v>0.02176627648195417</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.01066977350105702</v>
       </c>
     </row>
     <row r="116">
@@ -2744,10 +4124,22 @@
         <v>-0.02462504730538928</v>
       </c>
       <c r="E116" t="n">
+        <v>-0.02381064869371841</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.01785761740000646</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.01704146585485145</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.03193304710300904</v>
       </c>
-      <c r="F116" t="n">
+      <c r="I116" t="n">
         <v>-0.03406655456360586</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.005656115980961829</v>
       </c>
     </row>
     <row r="117">
@@ -2764,10 +4156,22 @@
         <v>0.07855001094685976</v>
       </c>
       <c r="E117" t="n">
+        <v>0.02772454801485491</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.07252644406826247</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.07542376181724197</v>
+      </c>
+      <c r="H117" t="n">
         <v>-0.004294924282880697</v>
       </c>
-      <c r="F117" t="n">
+      <c r="I117" t="n">
         <v>0.06237033072645781</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02360713685508919</v>
       </c>
     </row>
     <row r="118">
@@ -2784,10 +4188,22 @@
         <v>0.01145779562138127</v>
       </c>
       <c r="E118" t="n">
+        <v>0.03455238150665974</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.07696104113612812</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0113315660095501</v>
+      </c>
+      <c r="H118" t="n">
         <v>-0.03652707023737412</v>
       </c>
-      <c r="F118" t="n">
+      <c r="I118" t="n">
         <v>0.006952519314881833</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.01971381019096441</v>
       </c>
     </row>
     <row r="119">
@@ -2804,10 +4220,22 @@
         <v>0.1642263318159998</v>
       </c>
       <c r="E119" t="n">
+        <v>0.04428768020111651</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.03922071315328113</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.01259638768568561</v>
+      </c>
+      <c r="H119" t="n">
         <v>-0.02409755157906091</v>
       </c>
-      <c r="F119" t="n">
+      <c r="I119" t="n">
         <v>0.04955969094846058</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.02186535377385113</v>
       </c>
     </row>
     <row r="120">
@@ -2824,10 +4252,22 @@
         <v>-0.001074691129765437</v>
       </c>
       <c r="E120" t="n">
+        <v>0.01433716314640732</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.04184710993550045</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.01518317642139033</v>
+      </c>
+      <c r="H120" t="n">
         <v>-0.116259806115862</v>
       </c>
-      <c r="F120" t="n">
+      <c r="I120" t="n">
         <v>-0.01104983618658517</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.002608654798420318</v>
       </c>
     </row>
     <row r="121">
@@ -2844,10 +4284,22 @@
         <v>0.004291852081541148</v>
       </c>
       <c r="E121" t="n">
+        <v>0.01413451093490448</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.05965983640633565</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.050745199005235</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.02702867238791962</v>
       </c>
-      <c r="F121" t="n">
+      <c r="I121" t="n">
         <v>-0.06424226872835348</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.006090951012824419</v>
       </c>
     </row>
     <row r="122">
@@ -2864,10 +4316,22 @@
         <v>0.04807613343577488</v>
       </c>
       <c r="E122" t="n">
+        <v>-0.02486806657801344</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.07618913835754615</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.00260078170005773</v>
+      </c>
+      <c r="H122" t="n">
         <v>-0.01005033585350157</v>
       </c>
-      <c r="F122" t="n">
+      <c r="I122" t="n">
         <v>0.06867686579621957</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.01936068787544087</v>
       </c>
     </row>
     <row r="123">
@@ -2883,9 +4347,21 @@
       <c r="D123" t="n">
         <v>-0.06535518104412708</v>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>-0.1263629031459099</v>
+      </c>
       <c r="F123" t="n">
+        <v>-0.02531780798428995</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.05334598070529273</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
         <v>-0.02237229775453331</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.01561976484290817</v>
       </c>
     </row>
     <row r="124">
@@ -2901,9 +4377,21 @@
       <c r="D124" t="n">
         <v>0.01406188665657648</v>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>-0.07191258159028635</v>
+      </c>
       <c r="F124" t="n">
+        <v>-0.02597548640326064</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.0827861936192873</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
         <v>-0.1697314624338824</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.05618103059175716</v>
       </c>
     </row>
     <row r="125">
@@ -2919,9 +4407,21 @@
       <c r="D125" t="n">
         <v>-0.1100258749183198</v>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>0.06782259633876109</v>
+      </c>
       <c r="F125" t="n">
+        <v>0.07191258159028635</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.04652001563489261</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
         <v>0.1876691631205496</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.07383262816889236</v>
       </c>
     </row>
     <row r="126">
@@ -2937,9 +4437,21 @@
       <c r="D126" t="n">
         <v>-0.03414965985211893</v>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>-0.02070467336169113</v>
+      </c>
       <c r="F126" t="n">
+        <v>-0.06317890162153184</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.04058528011507834</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
         <v>-0.1930455201569301</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.04210460045121245</v>
       </c>
     </row>
     <row r="127">
@@ -2955,9 +4467,21 @@
       <c r="D127" t="n">
         <v>-0.05876530922625145</v>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>0.02886798400085233</v>
+      </c>
       <c r="F127" t="n">
+        <v>0.08338160893905133</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.01468455168292104</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
         <v>-0.02732410427455401</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.01725893442011106</v>
       </c>
     </row>
     <row r="128">
@@ -2973,9 +4497,21 @@
       <c r="D128" t="n">
         <v>-0.1410785982599054</v>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>0.08191712246788629</v>
+      </c>
       <c r="F128" t="n">
+        <v>0.06952606264861005</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0730661968745876</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
         <v>-0.1143264127884729</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.003540939679393063</v>
       </c>
     </row>
     <row r="129">
@@ -2991,9 +4527,21 @@
       <c r="D129" t="n">
         <v>0.00453515516539138</v>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>-0.0778603217722722</v>
+      </c>
       <c r="F129" t="n">
+        <v>-0.1103480571688653</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.05278269957791881</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
         <v>-0.0031104224143923</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0007151772697611136</v>
       </c>
     </row>
     <row r="130">
@@ -3009,9 +4557,21 @@
       <c r="D130" t="n">
         <v>-0.00453515516539138</v>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>0.004040409537005019</v>
+      </c>
       <c r="F130" t="n">
+        <v>-0.05568890586058872</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.06950687818035561</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
         <v>-0.00938974034983886</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02705252108433953</v>
       </c>
     </row>
     <row r="131">
@@ -3027,9 +4587,21 @@
       <c r="D131" t="n">
         <v>0.009049835519917782</v>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>0.2391438926606511</v>
+      </c>
       <c r="F131" t="n">
+        <v>0.04732065619007209</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.05368850511350498</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
         <v>0.1100664066952386</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.05589894673713758</v>
       </c>
     </row>
     <row r="132">
@@ -3045,9 +4617,21 @@
       <c r="D132" t="n">
         <v>-0.02431730765070617</v>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>0.08223809823697215</v>
+      </c>
       <c r="F132" t="n">
+        <v>0.1589411081498908</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.08701137698963013</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
         <v>0.1633636430493404</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02347620403233641</v>
       </c>
     </row>
     <row r="133">
@@ -3063,9 +4647,21 @@
       <c r="D133" t="n">
         <v>-0.006172859107080875</v>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>-0.2741291060470776</v>
+      </c>
       <c r="F133" t="n">
+        <v>-0.003590668130728503</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.1491285894381909</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
         <v>-0.1718502569266587</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.07732971366993446</v>
       </c>
     </row>
     <row r="134">
@@ -3081,9 +4677,21 @@
       <c r="D134" t="n">
         <v>-0.0378594110434225</v>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>-0.0717439048588413</v>
+      </c>
       <c r="F134" t="n">
+        <v>-0.05167201054432091</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.006064299967511122</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
         <v>-0.1698990367953979</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0.06102312719371383</v>
       </c>
     </row>
     <row r="135">
@@ -3099,9 +4707,21 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>-0.05085841723349116</v>
+      </c>
       <c r="F135" t="n">
+        <v>-0.01912104144677862</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.008552281815317642</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
         <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.02403630263020595</v>
       </c>
     </row>
     <row r="136">
@@ -3117,9 +4737,21 @@
       <c r="D136" t="n">
         <v>0.02225847060094255</v>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>0.08338160893905133</v>
+      </c>
       <c r="F136" t="n">
+        <v>0.1634837149078741</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.1102564862700333</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
         <v>0.2464391139177318</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.09440886239990398</v>
       </c>
     </row>
     <row r="137">
@@ -3135,9 +4767,21 @@
       <c r="D137" t="n">
         <v>-0.02709329065552613</v>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>-0.04499736593073589</v>
+      </c>
       <c r="F137" t="n">
+        <v>-0.003284075201190007</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.09201889872025237</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
         <v>-0.1594277369281021</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.04892736948712262</v>
       </c>
     </row>
     <row r="138">
@@ -3153,9 +4797,21 @@
       <c r="D138" t="n">
         <v>0.08066386428708583</v>
       </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>0.2633293602477234</v>
+      </c>
       <c r="F138" t="n">
+        <v>0.01307208156735307</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1062035337122089</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
         <v>0.2402798335571972</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.06897755498952307</v>
       </c>
     </row>
     <row r="139">
@@ -3171,9 +4827,21 @@
       <c r="D139" t="n">
         <v>0.01918878065086904</v>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>0.1682900259896969</v>
+      </c>
       <c r="F139" t="n">
+        <v>0.08701137698962969</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.05788043553196509</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
         <v>0.3350843113463648</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.1103088793599127</v>
       </c>
     </row>
     <row r="140">
@@ -3189,9 +4857,21 @@
       <c r="D140" t="n">
         <v>-0.04485056616535177</v>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>0.1695593051801034</v>
+      </c>
       <c r="F140" t="n">
+        <v>0.1490355791604876</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0121952730938184</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
         <v>0.005194816877104103</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0009724359707306007</v>
       </c>
     </row>
     <row r="141">
@@ -3207,9 +4887,21 @@
       <c r="D141" t="n">
         <v>0.01818231908319001</v>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>0.1349638524024841</v>
+      </c>
       <c r="F141" t="n">
+        <v>-0.01290340483590757</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.1393226715576401</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
         <v>0.07804789352710317</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03812510980879047</v>
       </c>
     </row>
     <row r="142">
@@ -3225,9 +4917,21 @@
       <c r="D142" t="n">
         <v>0.02958795718549601</v>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>-0.02845720481403546</v>
+      </c>
       <c r="F142" t="n">
+        <v>-0.05061000088641787</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.05138116398911841</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
         <v>0.05742461908576413</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.002114831776770743</v>
       </c>
     </row>
     <row r="143">
@@ -3243,9 +4947,21 @@
       <c r="D143" t="n">
         <v>-0.1524514440742983</v>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>-0.05292240145434235</v>
+      </c>
       <c r="F143" t="n">
+        <v>-0.07663322602091638</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.04088877025397863</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
         <v>-0.09984533496971615</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.03669699892455114</v>
       </c>
     </row>
     <row r="144">
@@ -3261,9 +4977,21 @@
       <c r="D144" t="n">
         <v>-0.05048939992239188</v>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>0.08737363020858879</v>
+      </c>
       <c r="F144" t="n">
+        <v>0.1298372620843806</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.008045095684831693</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
         <v>-0.03390155167568132</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0.009680135995434824</v>
       </c>
     </row>
     <row r="145">
@@ -3279,9 +5007,21 @@
       <c r="D145" t="n">
         <v>0.0299054827789047</v>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>0.1547196698852833</v>
+      </c>
       <c r="F145" t="n">
+        <v>0.1444815825552332</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.07318439785579312</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
         <v>0.08269171584511303</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.06152404863352778</v>
       </c>
     </row>
     <row r="146">
@@ -3297,9 +5037,21 @@
       <c r="D146" t="n">
         <v>0.03071913903753032</v>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>-0.03649405843057174</v>
+      </c>
       <c r="F146" t="n">
+        <v>0.1457878134614989</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.02080312762976355</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
         <v>0.07195145352669696</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-0.01908120935077307</v>
       </c>
     </row>
     <row r="147">
@@ -3315,9 +5067,21 @@
       <c r="D147" t="n">
         <v>-0.03942241416583192</v>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>-0.1568090774938682</v>
+      </c>
       <c r="F147" t="n">
+        <v>-0.05784264239897308</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.02985296314968178</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
         <v>-0.1091424818527766</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.06921420712902382</v>
       </c>
     </row>
     <row r="148">
@@ -3333,9 +5097,21 @@
       <c r="D148" t="n">
         <v>-0.06128043121801374</v>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>-0.03583101952692713</v>
+      </c>
       <c r="F148" t="n">
+        <v>-0.02074763219424858</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.001514004831215665</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
         <v>-0.001648804990184161</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.01025125471893595</v>
       </c>
     </row>
     <row r="149">
@@ -3351,9 +5127,21 @@
       <c r="D149" t="n">
         <v>0.01476041558312113</v>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>-0.1502242068190767</v>
+      </c>
       <c r="F149" t="n">
+        <v>-0.058268908123976</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0179914897930411</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
         <v>-0.02675744916954903</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-0.005967992045421866</v>
       </c>
     </row>
     <row r="150">
@@ -3369,9 +5157,21 @@
       <c r="D150" t="n">
         <v>0.1351326739914964</v>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>-0.05379017458613777</v>
+      </c>
       <c r="F150" t="n">
+        <v>-0.1638269741577898</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.02058896257762211</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
         <v>-0.03800111817861396</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0.07844282862710195</v>
       </c>
     </row>
     <row r="151">
@@ -3387,9 +5187,21 @@
       <c r="D151" t="n">
         <v>-0.2871488812901224</v>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>0.08810726751026721</v>
+      </c>
       <c r="F151" t="n">
+        <v>-0.1047789512331772</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0187460428210553</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
         <v>0.07624351721505995</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.018775454947626</v>
       </c>
     </row>
     <row r="152">
@@ -3405,9 +5217,21 @@
       <c r="D152" t="n">
         <v>-0.008565362858922843</v>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>-0.2322207694653264</v>
+      </c>
       <c r="F152" t="n">
+        <v>-0.04154900291287245</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.02259983191724046</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
         <v>-0.01479073800139652</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.05717395242021617</v>
       </c>
     </row>
     <row r="153">
@@ -3423,9 +5247,21 @@
       <c r="D153" t="n">
         <v>-0.002152853361101048</v>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>-0.2277132470042753</v>
+      </c>
       <c r="F153" t="n">
+        <v>-0.1087332001364656</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.01249148789402899</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
         <v>0.07185851876927529</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.006068023529556044</v>
       </c>
     </row>
     <row r="154">
@@ -3441,9 +5277,21 @@
       <c r="D154" t="n">
         <v>0.0276319386620858</v>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>-0.01538491883947923</v>
+      </c>
       <c r="F154" t="n">
+        <v>-0.09564807472222103</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.1255687402015058</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
         <v>-0.03130146000364942</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.08201506304040507</v>
       </c>
     </row>
     <row r="155">
@@ -3459,9 +5307,21 @@
       <c r="D155" t="n">
         <v>0.06296495669014046</v>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>-0.08068891125014277</v>
+      </c>
       <c r="F155" t="n">
+        <v>-0.1479740079355292</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-0.004878058453432921</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
         <v>0.03897609475675834</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-0.01057386906129842</v>
       </c>
     </row>
     <row r="156">
@@ -3477,9 +5337,21 @@
       <c r="D156" t="n">
         <v>-0.1079886380640955</v>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>-0.0517356743991888</v>
+      </c>
       <c r="F156" t="n">
+        <v>-0.109199291964992</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.02415576387933527</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
         <v>-0.1029848145574337</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.0630522636960702</v>
       </c>
     </row>
     <row r="157">
@@ -3495,9 +5367,21 @@
       <c r="D157" t="n">
         <v>-0.08223809823697215</v>
       </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>0.01754430965090936</v>
+      </c>
       <c r="F157" t="n">
+        <v>0.02843793532053329</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-0.01079794534678769</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
         <v>0.04312442663375471</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02710867528398708</v>
       </c>
     </row>
     <row r="158">
@@ -3513,9 +5397,21 @@
       <c r="D158" t="n">
         <v>0.08879549878313098</v>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>0.05498213441735311</v>
+      </c>
       <c r="F158" t="n">
+        <v>0.05897400245955131</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.07436642574120444</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
         <v>0.101782694309942</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.06922790885976049</v>
       </c>
     </row>
     <row r="159">
@@ -3531,9 +5427,21 @@
       <c r="D159" t="n">
         <v>-0.0514079667115106</v>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>-0.06811142585914576</v>
+      </c>
       <c r="F159" t="n">
+        <v>-0.1276331512669495</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-0.01466467340424682</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
         <v>0.008759180089881635</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.07687838811478365</v>
       </c>
     </row>
     <row r="160">
@@ -3549,9 +5457,21 @@
       <c r="D160" t="n">
         <v>-0.06148508365068084</v>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>0.03037109787629877</v>
+      </c>
       <c r="F160" t="n">
+        <v>0.02569311292395504</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.01488293069171043</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
         <v>0.005797117684326114</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.03245497213851856</v>
       </c>
     </row>
     <row r="161">
@@ -3567,9 +5487,21 @@
       <c r="D161" t="n">
         <v>0.03357629553360431</v>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>0.07806837336981909</v>
+      </c>
       <c r="F161" t="n">
+        <v>0.04762804898925443</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-0.02925896253821492</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
         <v>0.09636060006897651</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02277519861115529</v>
       </c>
     </row>
     <row r="162">
@@ -3585,9 +5517,21 @@
       <c r="D162" t="n">
         <v>-0.2814124594381857</v>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>-0.03213127818279338</v>
+      </c>
       <c r="F162" t="n">
+        <v>-0.3272129112084161</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.01882408524563495</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
         <v>-0.2257716737204793</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.09539341483713315</v>
       </c>
     </row>
     <row r="163">
@@ -3603,9 +5547,21 @@
       <c r="D163" t="n">
         <v>0.06648974126883322</v>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>0.03213127818279338</v>
+      </c>
       <c r="F163" t="n">
+        <v>0.1627769607209846</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.02645352644821752</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
         <v>0.2401041666212551</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03621888353428737</v>
       </c>
     </row>
     <row r="164">
@@ -3621,9 +5577,21 @@
       <c r="D164" t="n">
         <v>-0.05406722127027619</v>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>-0.07380397458336141</v>
+      </c>
       <c r="F164" t="n">
+        <v>-0.1161396499126535</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.04765573409882062</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
         <v>0.01157569195788888</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.09564000186873578</v>
       </c>
     </row>
     <row r="165">
@@ -3639,9 +5607,21 @@
       <c r="D165" t="n">
         <v>0.1136593184725214</v>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>0.2171682881241228</v>
+      </c>
       <c r="F165" t="n">
+        <v>0.08042156731057437</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.09747234280882022</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
         <v>0.1271170024468593</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.06882453646503173</v>
       </c>
     </row>
     <row r="166">
@@ -3657,9 +5637,21 @@
       <c r="D166" t="n">
         <v>-0.1075054528981427</v>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="n">
+        <v>-0.2214326869105805</v>
+      </c>
       <c r="F166" t="n">
+        <v>0.02580064594473308</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.119133839589999</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
         <v>-0.499256172083173</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.1396145751277658</v>
       </c>
     </row>
     <row r="167">
@@ -3675,9 +5667,21 @@
       <c r="D167" t="n">
         <v>-0.0248459985865308</v>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>-0.09402894964827624</v>
+      </c>
       <c r="F167" t="n">
+        <v>-0.06638592605981186</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-0.2074522215195342</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
         <v>-0.111771456858397</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.139779297350147</v>
       </c>
     </row>
     <row r="168">
@@ -3693,9 +5697,21 @@
       <c r="D168" t="n">
         <v>-0.1975309754574837</v>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>-0.1716742160847295</v>
+      </c>
       <c r="F168" t="n">
+        <v>-0.2700863105614011</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-0.0227110442602152</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
         <v>-0.04889390399005533</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.1340436430439063</v>
       </c>
     </row>
     <row r="169">
@@ -3711,9 +5727,21 @@
       <c r="D169" t="n">
         <v>-0.1351747783682526</v>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>-0.001115449083865627</v>
+      </c>
       <c r="F169" t="n">
+        <v>-0.03470379800831935</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.1955790347675661</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
         <v>-0.08879549878313098</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.07025620636456864</v>
       </c>
     </row>
     <row r="170">
@@ -3729,9 +5757,21 @@
       <c r="D170" t="n">
         <v>0.2125614419836728</v>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="n">
+        <v>0.1197651968603748</v>
+      </c>
       <c r="F170" t="n">
+        <v>0.2014000368991931</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-0.05946142522139919</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
         <v>0.1862819580100514</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.07770456219432909</v>
       </c>
     </row>
     <row r="171">
@@ -3747,9 +5787,21 @@
       <c r="D171" t="n">
         <v>0.1264139248556586</v>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>0.1470534179564966</v>
+      </c>
       <c r="F171" t="n">
+        <v>0.02462859415303997</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-0.0920546153445585</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
         <v>0.1869222878798915</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.02888715849408108</v>
       </c>
     </row>
     <row r="172">
@@ -3765,9 +5817,21 @@
       <c r="D172" t="n">
         <v>-0.2192449108985524</v>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="n">
+        <v>-0.2502161305318436</v>
+      </c>
       <c r="F172" t="n">
+        <v>0.001279590705625111</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.02461333454902581</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
         <v>-0.3289595440921858</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0879708260579104</v>
       </c>
     </row>
     <row r="173">
@@ -3783,9 +5847,21 @@
       <c r="D173" t="n">
         <v>0.02307794728254464</v>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="n">
+        <v>0.1793900779632311</v>
+      </c>
       <c r="F173" t="n">
+        <v>-0.138292434395799</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.349673748479749</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
         <v>0.03579800587577919</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.1606134718170544</v>
       </c>
     </row>
     <row r="174">
@@ -3801,9 +5877,21 @@
       <c r="D174" t="n">
         <v>0.3939927069459275</v>
       </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>0.3456047201844856</v>
+      </c>
       <c r="F174" t="n">
+        <v>0.4565136344122507</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.3101549283038398</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
         <v>0.3474013071534032</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.2086327681487425</v>
       </c>
     </row>
     <row r="175">
@@ -3819,9 +5907,21 @@
       <c r="D175" t="n">
         <v>-0.007722046093909807</v>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>0.2179352062070712</v>
+      </c>
       <c r="F175" t="n">
+        <v>-0.04276185933808163</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.0390021578032691</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
         <v>-0.07076907088820716</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.003134293054200654</v>
       </c>
     </row>
     <row r="176">
@@ -3837,9 +5937,21 @@
       <c r="D176" t="n">
         <v>-0.1442941612047157</v>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="n">
+        <v>0.04342955792733605</v>
+      </c>
       <c r="F176" t="n">
+        <v>0.2480729343567352</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-0.09531017980432566</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
         <v>0.1669258713159811</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.06869537343951926</v>
       </c>
     </row>
     <row r="177">
@@ -3855,9 +5967,21 @@
       <c r="D177" t="n">
         <v>0.005952398527295344</v>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>0.1505728584793746</v>
+      </c>
       <c r="F177" t="n">
+        <v>0.1861022796338609</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.3138979145826744</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
         <v>0.3030777579297546</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.1359415785643421</v>
       </c>
     </row>
     <row r="178">
@@ -3873,9 +5997,21 @@
       <c r="D178" t="n">
         <v>0.08800000781656925</v>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="n">
+        <v>0.01705798290457627</v>
+      </c>
       <c r="F178" t="n">
+        <v>0.02177379954956038</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.07051378432765798</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
         <v>-0.01047129986729578</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03430862750041008</v>
       </c>
     </row>
     <row r="179">
@@ -3891,9 +6027,21 @@
       <c r="D179" t="n">
         <v>0.05292240145434235</v>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>0.01260520891898231</v>
+      </c>
       <c r="F179" t="n">
+        <v>0.08264287460355924</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-0.2392296890658336</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
         <v>0.05129329438755059</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.03971707395434265</v>
       </c>
     </row>
     <row r="180">
@@ -3909,9 +6057,21 @@
       <c r="D180" t="n">
         <v>-0.1232748924573337</v>
       </c>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>-0.136219164886159</v>
+      </c>
       <c r="F180" t="n">
+        <v>-0.03458557964978004</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-0.01965128739728872</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
         <v>-0.08883121370661584</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0.01882030310493654</v>
       </c>
     </row>
     <row r="181">
@@ -3927,9 +6087,21 @@
       <c r="D181" t="n">
         <v>-0.2393084881675649</v>
       </c>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>-0.02666824708216087</v>
+      </c>
       <c r="F181" t="n">
+        <v>-0.09208956510428257</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-0.1598634015277147</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
         <v>-0.6043159668533296</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0.1120332082521571</v>
       </c>
     </row>
     <row r="182">
@@ -3945,9 +6117,21 @@
       <c r="D182" t="n">
         <v>0.1381503384808171</v>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>0.2097869342491343</v>
+      </c>
       <c r="F182" t="n">
+        <v>-0.06646964500774155</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.1795146889250034</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
         <v>-0.2231435513142097</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.1230883215995391</v>
       </c>
     </row>
     <row r="183">
@@ -3963,9 +6147,21 @@
       <c r="D183" t="n">
         <v>-0.08759805931798592</v>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
       <c r="F183" t="n">
+        <v>-0.02787636952825467</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.01608613775162393</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
         <v>-0.03045920748470854</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.009374841955240854</v>
       </c>
     </row>
     <row r="184">
@@ -3981,9 +6177,21 @@
       <c r="D184" t="n">
         <v>0.04475790064149354</v>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>0.05238831216657003</v>
+      </c>
       <c r="F184" t="n">
+        <v>0.05164658886216644</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.256619480510599</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
         <v>0.01534556967466028</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.1231178078236486</v>
       </c>
     </row>
     <row r="185">
@@ -3999,9 +6207,21 @@
       <c r="D185" t="n">
         <v>0.1203983930223669</v>
       </c>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>-0.009496747537257377</v>
+      </c>
       <c r="F185" t="n">
+        <v>-0.1061065059945476</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.06762018767497935</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
         <v>0.01010109598650422</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-0.02448020374300697</v>
       </c>
     </row>
     <row r="186">
@@ -4017,9 +6237,21 @@
       <c r="D186" t="n">
         <v>-0.1651562936638604</v>
       </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="n">
+        <v>-0.1173060501953964</v>
+      </c>
       <c r="F186" t="n">
+        <v>-0.03415891881131916</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.1445812288111075</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
         <v>-0.01010109598650422</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.05357677235434188</v>
       </c>
     </row>
     <row r="187">
@@ -4035,9 +6267,21 @@
       <c r="D187" t="n">
         <v>0.3016683144265211</v>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>0.03996325681183732</v>
+      </c>
       <c r="F187" t="n">
+        <v>0.160199639706684</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-0.2862016872813467</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
         <v>0.08277228628386313</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03340210386970277</v>
       </c>
     </row>
     <row r="188">
@@ -4053,9 +6297,21 @@
       <c r="D188" t="n">
         <v>0.04331887471884199</v>
       </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>0.0502618347808883</v>
+      </c>
       <c r="F188" t="n">
+        <v>-0.02666824708216131</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-0.3209716914209624</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
         <v>-0.02364176305704069</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-0.04447951361111357</v>
       </c>
     </row>
     <row r="189">
@@ -4071,9 +6327,21 @@
       <c r="D189" t="n">
         <v>0.01730574709759258</v>
       </c>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>-0.1053605156578263</v>
+      </c>
       <c r="F189" t="n">
+        <v>-0.03787027405540977</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-0.1417214465945671</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
         <v>-0.03902934390573476</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.0867648748703207</v>
       </c>
     </row>
     <row r="190">
@@ -4089,9 +6357,21 @@
       <c r="D190" t="n">
         <v>-0.0223057575142982</v>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>-0.04683129968409894</v>
+      </c>
       <c r="F190" t="n">
+        <v>0.02426462199963142</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.121951445193563</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
         <v>-0.08565544457849406</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-0.03365158667688739</v>
       </c>
     </row>
     <row r="191">
@@ -4107,9 +6387,21 @@
       <c r="D191" t="n">
         <v>0.1680175686956922</v>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>0.04027389913794011</v>
+      </c>
       <c r="F191" t="n">
+        <v>0.01022155407153802</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-0.04770921782046766</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
         <v>0.3236140816778441</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.001140875374304073</v>
       </c>
     </row>
     <row r="192">
@@ -4125,9 +6417,21 @@
       <c r="D192" t="n">
         <v>0.03742640551911691</v>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>-0.01324522675002093</v>
+      </c>
       <c r="F192" t="n">
+        <v>0.04636592055792566</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-0.3058804026787278</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
         <v>-0.1706255170307633</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.002223437969606223</v>
       </c>
     </row>
     <row r="193">
@@ -4143,9 +6447,21 @@
       <c r="D193" t="n">
         <v>-0.06972200021046771</v>
       </c>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>-0.2628088077066408</v>
+      </c>
       <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-0.06359110278153146</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
         <v>-0.1944882955538336</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-0.02593725544685022</v>
       </c>
     </row>
     <row r="194">
@@ -4161,9 +6477,21 @@
       <c r="D194" t="n">
         <v>-0.04246448051775875</v>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>0.08315036833217038</v>
+      </c>
       <c r="F194" t="n">
+        <v>-0.01631357549152401</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.04686430897621774</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
         <v>0.2488002849075737</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.0159865702511528</v>
       </c>
     </row>
     <row r="195">
@@ -4179,9 +6507,21 @@
       <c r="D195" t="n">
         <v>-0.3014753945841169</v>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>-0.07165598890643521</v>
+      </c>
       <c r="F195" t="n">
+        <v>-0.006600684031351722</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-0.09470795154161893</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
         <v>-0.410986933292472</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0.03326831159176713</v>
       </c>
     </row>
     <row r="196">
@@ -4197,9 +6537,21 @@
       <c r="D196" t="n">
         <v>-0.006191970247920953</v>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>-0.03193304710300948</v>
+      </c>
       <c r="F196" t="n">
+        <v>-0.04746653723892402</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-0.2034707857155045</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
         <v>-0.02353049741019442</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.07494059862976243</v>
       </c>
     </row>
     <row r="197">
@@ -4215,9 +6567,21 @@
       <c r="D197" t="n">
         <v>0.06025919151819714</v>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>0.002945510229757087</v>
+      </c>
       <c r="F197" t="n">
+        <v>0.006920442844573937</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.006472514505617255</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
         <v>0.02353049741019442</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-0.01988936688539944</v>
       </c>
     </row>
     <row r="198">
@@ -4233,9 +6597,21 @@
       <c r="D198" t="n">
         <v>-0.1649298140820856</v>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>-0.02682724223314414</v>
+      </c>
       <c r="F198" t="n">
+        <v>-0.04586341679318107</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-0.1307702311831949</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
         <v>0.003316752625993846</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.04021047354934382</v>
       </c>
     </row>
     <row r="199">
@@ -4251,9 +6627,21 @@
       <c r="D199" t="n">
         <v>-0.240535294026079</v>
       </c>
-      <c r="E199" t="inlineStr"/>
+      <c r="E199" t="n">
+        <v>0.1742325339208706</v>
+      </c>
       <c r="F199" t="n">
+        <v>0.04586341679318107</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-0.1086338410027952</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
         <v>0.05162436540530724</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.02406143777349889</v>
       </c>
     </row>
     <row r="200">
@@ -4269,9 +6657,21 @@
       <c r="D200" t="n">
         <v>-0.1161396499126535</v>
       </c>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="n">
+        <v>0.03000225030379911</v>
+      </c>
       <c r="F200" t="n">
+        <v>0.06021885999305487</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.112303569891758</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
         <v>0.1015797928179203</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03797556248633782</v>
       </c>
     </row>
     <row r="201">
@@ -4287,9 +6687,21 @@
       <c r="D201" t="n">
         <v>-0.009901070982711424</v>
       </c>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="n">
+        <v>-0.01239173229516366</v>
+      </c>
       <c r="F201" t="n">
+        <v>-0.02298951822469864</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-0.1435235872529725</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
         <v>-0.02590072843215774</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02103777881639068</v>
       </c>
     </row>
     <row r="202">
@@ -4305,9 +6717,21 @@
       <c r="D202" t="n">
         <v>-0.1593049018953963</v>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>0.04152000521818699</v>
+      </c>
       <c r="F202" t="n">
+        <v>0.006622540760493401</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-0.01921083626567732</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
         <v>-0.1922835495227018</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.04634918842679703</v>
       </c>
     </row>
     <row r="203">
@@ -4323,9 +6747,21 @@
       <c r="D203" t="n">
         <v>-0.2551557691213462</v>
       </c>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="n">
+        <v>-0.0540672212702753</v>
+      </c>
       <c r="F203" t="n">
+        <v>-0.06124362524071891</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-0.2963401351948955</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
         <v>0.1291046479011704</v>
+      </c>
+      <c r="J203" t="n">
+        <v>-0.08096840735459132</v>
       </c>
     </row>
     <row r="204">
@@ -4341,9 +6777,21 @@
       <c r="D204" t="n">
         <v>0.05565125454937725</v>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>0.007547205635382692</v>
+      </c>
       <c r="F204" t="n">
+        <v>0.01739174271186927</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.04533354130152123</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
         <v>0.03658944743229231</v>
+      </c>
+      <c r="J204" t="n">
+        <v>-0.007945031015431425</v>
       </c>
     </row>
     <row r="205">
@@ -4359,9 +6807,21 @@
       <c r="D205" t="n">
         <v>0.07938502925456548</v>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>-0.02538207327141695</v>
+      </c>
       <c r="F205" t="n">
+        <v>0.01369884435816182</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-0.09282020756750908</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
         <v>-0.04281999718292839</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-0.004498316328048091</v>
       </c>
     </row>
     <row r="206">
@@ -4377,9 +6837,21 @@
       <c r="D206" t="n">
         <v>0.03744788756549777</v>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>0.09320466961017804</v>
+      </c>
       <c r="F206" t="n">
+        <v>0.08161133544616295</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.08447523563532799</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
         <v>0.1451820098444978</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.002470851039797495</v>
       </c>
     </row>
     <row r="207">
@@ -4395,9 +6867,21 @@
       <c r="D207" t="n">
         <v>-0.01661380066265572</v>
       </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>-0.01415117954624323</v>
+      </c>
       <c r="F207" t="n">
+        <v>-0.003139720004667446</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.03026365763982719</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
         <v>-0.03576722385863063</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0.05410276950314419</v>
       </c>
     </row>
     <row r="208">
@@ -4413,9 +6897,21 @@
       <c r="D208" t="n">
         <v>-0.2084327007976403</v>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>-0.09721222507580585</v>
+      </c>
       <c r="F208" t="n">
+        <v>-0.09909090264423126</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-0.01639380977567662</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
         <v>-0.05468988629662075</v>
+      </c>
+      <c r="J208" t="n">
+        <v>-0.07342508893708732</v>
       </c>
     </row>
     <row r="209">
@@ -4431,9 +6927,21 @@
       <c r="D209" t="n">
         <v>0.1716831585888989</v>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>0.09483410267083858</v>
+      </c>
       <c r="F209" t="n">
+        <v>0.06062462181643502</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-0.09834508349947857</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
         <v>0.05468988629662075</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.05965122257230426</v>
       </c>
     </row>
     <row r="210">
@@ -4449,9 +6957,21 @@
       <c r="D210" t="n">
         <v>0.03674954220874138</v>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>0.06453852113757108</v>
+      </c>
       <c r="F210" t="n">
+        <v>0.0289875368732524</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.1493628578412034</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
         <v>0.01114217655324179</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.01401264526380253</v>
       </c>
     </row>
     <row r="211">
@@ -4467,9 +6987,21 @@
       <c r="D211" t="n">
         <v>0.09460702730846027</v>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>0.1528743554676537</v>
+      </c>
       <c r="F211" t="n">
+        <v>0.08806901854776505</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.01558473101669788</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
         <v>0.1749072503547269</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.04512711368992406</v>
       </c>
     </row>
     <row r="212">
@@ -4485,9 +7017,21 @@
       <c r="D212" t="n">
         <v>0.003510828650063136</v>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>0.07915814326380222</v>
+      </c>
       <c r="F212" t="n">
+        <v>0.01729149711006128</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.1348192228089515</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
         <v>-0.004662013105811269</v>
+      </c>
+      <c r="J212" t="n">
+        <v>-0.01115838347210563</v>
       </c>
     </row>
     <row r="213">
@@ -4503,9 +7047,21 @@
       <c r="D213" t="n">
         <v>-0.06018663363511356</v>
       </c>
-      <c r="E213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>-0.02146772962410637</v>
+      </c>
       <c r="F213" t="n">
+        <v>-0.002861232281032411</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-0.147789573251579</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
         <v>0.03444657446333865</v>
+      </c>
+      <c r="J213" t="n">
+        <v>-0.03760674924562224</v>
       </c>
     </row>
     <row r="214">
@@ -4521,9 +7077,21 @@
       <c r="D214" t="n">
         <v>0.04369627173569812</v>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>0.1046369266248077</v>
+      </c>
       <c r="F214" t="n">
+        <v>-0.01443026482902887</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.1341839211958002</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
         <v>0.05061586408051033</v>
+      </c>
+      <c r="J214" t="n">
+        <v>-0.03271569062639834</v>
       </c>
     </row>
     <row r="215">
@@ -4539,9 +7107,21 @@
       <c r="D215" t="n">
         <v>0.1047665150463604</v>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="n">
+        <v>-0.006535970979785422</v>
+      </c>
       <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.1243570163484815</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
         <v>-0.04836107169342085</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.03177039771493639</v>
       </c>
     </row>
     <row r="216">
@@ -4557,9 +7137,21 @@
       <c r="D216" t="n">
         <v>0.1301835488548386</v>
       </c>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="n">
+        <v>0.003273325344969269</v>
+      </c>
       <c r="F216" t="n">
+        <v>0.08361414004113366</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-0.1568424714929697</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
         <v>0.0779615414697119</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.03307240914379328</v>
       </c>
     </row>
     <row r="217">
@@ -4575,9 +7167,21 @@
       <c r="D217" t="n">
         <v>-0.05302446830822038</v>
       </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="n">
+        <v>-0.05370417897186108</v>
+      </c>
       <c r="F217" t="n">
+        <v>-0.04932506656250135</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-0.2032946801742335</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
         <v>-0.04255961441879608</v>
+      </c>
+      <c r="J217" t="n">
+        <v>-0.03501405862201423</v>
       </c>
     </row>
     <row r="218">
@@ -4593,9 +7197,21 @@
       <c r="D218" t="n">
         <v>0.03883983331626384</v>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>0.05370417897186108</v>
+      </c>
       <c r="F218" t="n">
+        <v>0.01671348097374059</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.03409421134297563</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
         <v>0.06317890162153184</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0239769124217748</v>
       </c>
     </row>
     <row r="219">
@@ -4611,9 +7227,21 @@
       <c r="D219" t="n">
         <v>-0.1597217248767135</v>
       </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="n">
+        <v>-0.05370417897186108</v>
+      </c>
       <c r="F219" t="n">
+        <v>0.02185879381249878</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-0.005602255548669444</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
         <v>-0.0807232112724412</v>
+      </c>
+      <c r="J219" t="n">
+        <v>-0.04922871893976399</v>
       </c>
     </row>
     <row r="220">
@@ -4629,9 +7257,21 @@
       <c r="D220" t="n">
         <v>-0.05748709091768189</v>
       </c>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="n">
+        <v>-0.003454234868087713</v>
+      </c>
       <c r="F220" t="n">
+        <v>-0.04420609250449559</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-0.2224415505833801</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
         <v>-0.008888947417246218</v>
+      </c>
+      <c r="J220" t="n">
+        <v>-0.02403954841757994</v>
       </c>
     </row>
     <row r="221">
@@ -4647,9 +7287,21 @@
       <c r="D221" t="n">
         <v>0.04058528011507878</v>
       </c>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="n">
+        <v>0.05388508849497953</v>
+      </c>
       <c r="F221" t="n">
+        <v>-0.04625101765075579</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-0.2319541809963646</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
         <v>0.01330396562636293</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02419865264401366</v>
       </c>
     </row>
     <row r="222">
@@ -4665,9 +7317,21 @@
       <c r="D222" t="n">
         <v>-0.04652001563489305</v>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>-0.02321829010200727</v>
+      </c>
       <c r="F222" t="n">
+        <v>0.05748709091768145</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-0.004434597067865642</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
         <v>0.06398770867528381</v>
+      </c>
+      <c r="J222" t="n">
+        <v>-0.01380581954702187</v>
       </c>
     </row>
     <row r="223">
@@ -4683,9 +7347,21 @@
       <c r="D223" t="n">
         <v>-0.03021377859649643</v>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>-0.05164658886216689</v>
+      </c>
       <c r="F223" t="n">
+        <v>-0.05158736879049286</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-0.06899287148695166</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
         <v>0.06789033554285107</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-0.06169784205110318</v>
       </c>
     </row>
     <row r="224">
@@ -4701,9 +7377,21 @@
       <c r="D224" t="n">
         <v>0.0936356050339926</v>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>0.09112539983595447</v>
+      </c>
       <c r="F224" t="n">
+        <v>0.0289875368732524</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.0281708769666964</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
         <v>-0.1318780442181349</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.07443392585774333</v>
       </c>
     </row>
     <row r="225">
@@ -4719,9 +7407,21 @@
       <c r="D225" t="n">
         <v>0.0383608678724463</v>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>-0.0840831172105414</v>
+      </c>
       <c r="F225" t="n">
+        <v>0.01699757636857102</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.0969922659873097</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
         <v>0.01746769304039075</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02342439686788289</v>
       </c>
     </row>
     <row r="226">
@@ -4737,9 +7437,21 @@
       <c r="D226" t="n">
         <v>-0.01626052087178032</v>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="n">
+        <v>-0.02486806657801344</v>
+      </c>
       <c r="F226" t="n">
+        <v>-0.04598511324182342</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.004192878260036004</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
         <v>0.05884050002293373</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02314489064656478</v>
       </c>
     </row>
     <row r="227">
@@ -4755,9 +7467,21 @@
       <c r="D227" t="n">
         <v>0.237251218824889</v>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>0.3385256254330549</v>
+      </c>
       <c r="F227" t="n">
+        <v>0.1625189294977747</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.2273189227246903</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
         <v>0.07847161544149506</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.06400601976499587</v>
       </c>
     </row>
     <row r="228">
@@ -4773,9 +7497,21 @@
       <c r="D228" t="n">
         <v>0.1700337260002613</v>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="n">
+        <v>0.03774032798284699</v>
+      </c>
       <c r="F228" t="n">
+        <v>0.009950330853168321</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-0.07257069283483553</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
         <v>0.007518832414027177</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.03441229257376754</v>
       </c>
     </row>
     <row r="229">
@@ -4791,9 +7527,21 @@
       <c r="D229" t="n">
         <v>-0.2186083961488183</v>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="n">
+        <v>-0.09309042306601167</v>
+      </c>
       <c r="F229" t="n">
+        <v>-0.09333193979221921</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-0.01444068415479416</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
         <v>-0.2593724896106684</v>
+      </c>
+      <c r="J229" t="n">
+        <v>-0.05717880457345892</v>
       </c>
     </row>
     <row r="230">
@@ -4809,9 +7557,21 @@
       <c r="D230" t="n">
         <v>-0.2861749131612097</v>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="E230" t="n">
+        <v>-0.0907137136881655</v>
+      </c>
       <c r="F230" t="n">
+        <v>-0.2245031708302494</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-0.07159365318700894</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
         <v>-0.2652811357626144</v>
+      </c>
+      <c r="J230" t="n">
+        <v>-0.07907055860093237</v>
       </c>
     </row>
     <row r="231">
@@ -4827,9 +7587,21 @@
       <c r="D231" t="n">
         <v>-0.06213178110700612</v>
       </c>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="n">
+        <v>-0.06434071676544972</v>
+      </c>
       <c r="F231" t="n">
+        <v>0.03344793406753999</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-0.1158318155251217</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
         <v>0.01257878220686015</v>
+      </c>
+      <c r="J231" t="n">
+        <v>-0.02039434593237566</v>
       </c>
     </row>
     <row r="232">
@@ -4845,9 +7617,21 @@
       <c r="D232" t="n">
         <v>0.1431008436406733</v>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" t="n">
+        <v>0.07320340402329517</v>
+      </c>
       <c r="F232" t="n">
         <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.03023988518971832</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.04627254240850931</v>
       </c>
     </row>
   </sheetData>
